--- a/Resources/files/import/acs/ALL_PROJECTS.xlsx
+++ b/Resources/files/import/acs/ALL_PROJECTS.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://formationmedia-my.sharepoint.com/personal/jason_formationmedia_co_uk/Documents/- Clients/AEGIS/MDSS/Export Files/2022-09-07/ACS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Dev\var\www\html\glowt4\www\modules\AEGIS\Resources\files\import\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4B165DA771953B32E34B16E445FAEE295F690421" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8892C3E5-D645-48D9-8DB2-A2BD687C6324}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA52CF55-9512-4A19-8C4A-86F0D2999291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="240" windowWidth="14610" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18480" yWindow="16200" windowWidth="19920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL PROJECTS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL PROJECTS'!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -8625,36 +8628,43 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -9166,8 +9176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57315,6 +57325,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/files/import/acs/ALL_PROJECTS.xlsx
+++ b/Resources/files/import/acs/ALL_PROJECTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Dev\var\www\html\glowt4\www\modules\AEGIS\Resources\files\import\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA52CF55-9512-4A19-8C4A-86F0D2999291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D2F8C-B55D-4DDC-8DDB-14C08146017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="16200" windowWidth="19920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="0" windowWidth="19920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL PROJECTS" sheetId="1" r:id="rId1"/>
@@ -9177,7 +9177,7 @@
   <dimension ref="A1:L1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57325,7 +57325,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1375">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>